--- a/SHAP/keep_Hn_shap.xlsx
+++ b/SHAP/keep_Hn_shap.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.826797981055308e-05</v>
+        <v>4.823712106852731e-05</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.355921303167399e-05</v>
+        <v>6.351828417088331e-05</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.171780480771251e-05</v>
+        <v>4.151725316181081e-05</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.166871830593401e-05</v>
+        <v>2.167753923753714e-05</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0001805339976879281</v>
+        <v>0.000180491434114067</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.34791785450605e-05</v>
+        <v>5.322045189521259e-05</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.295952127476703e-05</v>
+        <v>1.285734420393612e-05</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.897822331838242e-05</v>
+        <v>1.92359541372374e-05</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.102042546242687e-05</v>
+        <v>3.135206226056221e-05</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.026087523177783e-05</v>
+        <v>3.04776222587208e-05</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.831716704848798e-05</v>
+        <v>1.809746288411477e-05</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.25737210306376e-05</v>
+        <v>1.246321771416641e-05</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.521739456559812e-05</v>
+        <v>3.494307314350983e-05</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.523138387953625e-05</v>
+        <v>1.533054277918431e-05</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.169386631222096e-05</v>
+        <v>3.207539147244977e-05</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.52220098076606e-05</v>
+        <v>6.541616762866939e-05</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.37114667249692e-05</v>
+        <v>5.352977670267405e-05</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.535790738745527e-05</v>
+        <v>2.534631068421036e-05</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.857227010966883e-05</v>
+        <v>3.866612528759924e-05</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.736354395753088e-05</v>
+        <v>2.7245629097016e-05</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.656912308810293e-05</v>
+        <v>6.593858394030188e-05</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.80107996066734e-05</v>
+        <v>1.824138155036271e-05</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.267451285869306e-05</v>
+        <v>4.245195593576835e-05</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.493644087235225e-05</v>
+        <v>2.479385293874846e-05</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.513569137508376e-05</v>
+        <v>4.522295191001501e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.566386487639073e-05</v>
+        <v>1.534470392386801e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.534331747608286e-05</v>
+        <v>3.514199163176058e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.206805594713987e-05</v>
+        <v>3.178245358218824e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.338931831365347e-05</v>
+        <v>3.288769948605978e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.624475055735166e-05</v>
+        <v>3.650377376256499e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.817625990976507e-05</v>
+        <v>2.834766055828733e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.111386289088786e-05</v>
+        <v>2.118160951747545e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.636193227510531e-05</v>
+        <v>1.689288264658724e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.672003992862567e-05</v>
+        <v>1.67000580812405e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.357840401504704e-05</v>
+        <v>7.398755716951347e-05</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.807973688930613e-05</v>
+        <v>1.812935385762642e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5.011002409302602e-05</v>
+        <v>4.980231149011689e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.939995573429851e-05</v>
+        <v>6.915529427541604e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.417554283962197e-05</v>
+        <v>2.393468630956089e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.163617319477578e-05</v>
+        <v>1.160236817893111e-05</v>
       </c>
     </row>
   </sheetData>

--- a/SHAP/keep_Hn_shap.xlsx
+++ b/SHAP/keep_Hn_shap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,525 +444,1072 @@
           <t>shap</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>screen1_1</t>
+          <t>From_Same_Orbital</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.823712106852731e-05</v>
+        <v>9.695722191761023e-06</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$\mathbf{b}$</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>screen1_2</t>
+          <t>pair_energy</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.351828417088331e-05</v>
+        <v>2.917239970596555e-07</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$\left(\varepsilon_{pq\left(\text{MP2}\right)}\right)$</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>screen1_3</t>
+          <t>coulomb</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.151725316181081e-05</v>
+        <v>3.906174623510931e-05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$\langle pp \vert \vert qq \rangle$</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>screen1_4</t>
+          <t>screen1_1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.167753923753714e-05</v>
+        <v>3.298389239923738e-05</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>screen2_1</t>
+          <t>screen1_2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000180491434114067</v>
+        <v>1.982878186625733e-05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>screen2_2</t>
+          <t>screen1_3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.322045189521259e-05</v>
+        <v>3.026498250775474e-05</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>screen2_3</t>
+          <t>screen1_4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.285734420393612e-05</v>
+        <v>0.0001080313733767036</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$(\langle pp \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>screen2_4</t>
+          <t>screen2_1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.92359541372374e-05</v>
+        <v>1.537135193517654e-05</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>eijab_1</t>
+          <t>screen2_2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.135206226056221e-05</v>
+        <v>2.134236485205795e-05</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>eijab_2</t>
+          <t>screen2_3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.04776222587208e-05</v>
+        <v>1.230160190761414e-05</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>eijab_3</t>
+          <t>screen2_4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.809746288411477e-05</v>
+        <v>1.51740316583222e-05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$(\langle qq \vert \vert ss \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>screenvirt_1</t>
+          <t>eijab_1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.246321771416641e-05</v>
+        <v>2.14449630477657e-05</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>screenvirt_2</t>
+          <t>eijab_2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.494307314350983e-05</v>
+        <v>2.729162187511765e-05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>screenvirt_3</t>
+          <t>eijab_3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.533054277918431e-05</v>
+        <v>1.447748608602093e-05</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>screenvirt_4</t>
+          <t>eijab_4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.207539147244977e-05</v>
+        <v>1.086374108403752e-05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$(e^{rs}_{pq})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fr1</t>
+          <t>screenvirt_1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.541616762866939e-05</v>
+        <v>1.505307806849746e-05</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fr2</t>
+          <t>screenvirt_2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.352977670267405e-05</v>
+        <v>2.038316102671023e-05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fr3</t>
+          <t>screenvirt_3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.534631068421036e-05</v>
+        <v>2.776265026679899e-05</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fr4</t>
+          <t>screenvirt_4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.866612528759924e-05</v>
+        <v>8.974160163260691e-05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$(\langle ss \vert \vert rr \rangle)_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fs1</t>
+          <t>Fr1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.7245629097016e-05</v>
+        <v>3.714639886268702e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fs2</t>
+          <t>Fr2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.593858394030188e-05</v>
+        <v>2.788859006468877e-05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fs3</t>
+          <t>Fr3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.824138155036271e-05</v>
+        <v>1.919388497865411e-05</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fs4</t>
+          <t>Fr4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.245195593576835e-05</v>
+        <v>3.882279324463042e-05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$(F_{r})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SCFFr2</t>
+          <t>Fs1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.479385293874846e-05</v>
+        <v>5.89077455263604e-05</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SCFFs1</t>
+          <t>Fs2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.522295191001501e-05</v>
+        <v>5.007239400837282e-05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SCFFs2</t>
+          <t>Fs3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.534470392386801e-05</v>
+        <v>1.852343376204576e-05</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SCFFs3</t>
+          <t>Fs4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.514199163176058e-05</v>
+        <v>2.848949199356509e-05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$(F_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SCFFs4</t>
+          <t>occs1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.178245358218824e-05</v>
+        <v>1.94568467598151e-06</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hrr1</t>
+          <t>occs2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.288769948605978e-05</v>
+        <v>1.165222977408254e-05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hrr2</t>
+          <t>occs3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.650377376256499e-05</v>
+        <v>1.896184029187639e-06</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>hrr3</t>
+          <t>occs4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.834766055828733e-05</v>
+        <v>2.731761590601191e-06</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$(\eta_{s})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>hrr4</t>
+          <t>SCFFr1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.118160951747545e-05</v>
+        <v>1.328295276801704e-05</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>hss1</t>
+          <t>SCFFr2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.689288264658724e-05</v>
+        <v>1.374763098870996e-05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hss2</t>
+          <t>SCFFr3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.67000580812405e-05</v>
+        <v>5.624827404935988e-06</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>hss3</t>
+          <t>SCFFr4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.398755716951347e-05</v>
+        <v>1.440052220719624e-05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$(F_{r}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>hss4</t>
+          <t>SCFFs1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.812935385762642e-05</v>
+        <v>8.908149958764312e-06</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{1}$</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hpp</t>
+          <t>SCFFs2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.980231149011689e-05</v>
+        <v>2.605395858918266e-05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{2}$</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fp</t>
+          <t>SCFFs3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.915529427541604e-05</v>
+        <v>1.280606432512473e-05</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{3}$</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fq</t>
+          <t>SCFFs4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.393468630956089e-05</v>
+        <v>1.946476083934925e-05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$(F_{s}^{\text{SCF}})_{4}$</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SCFOCCs1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.508228989776107e-07</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{1}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SCFOCCs2</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.425979031093807e-07</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{2}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SCFOCCs3</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2.516474302908203e-07</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{3}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SCFOCCs4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2.459839718290243e-07</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{4}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>hrr1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2.709165242425977e-05</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{1}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>hrr2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3.305020740095466e-05</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{2}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>hrr3</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2.610359224058747e-05</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{3}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hrr4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2.922966899681149e-05</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$(h_{rr})_{4}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>hss1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2.415098516541381e-05</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{1}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hss2</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4.007887269850253e-05</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{2}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>hss3</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2.032099990120846e-05</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{3}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>hss4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1.520293690744772e-05</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$(h_{ss})_{4}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>hpp</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3.533873234592448e-05</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$h_{pp}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>hqq</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.790942281835334e-07</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$h_{qq}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fp</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6.834507276206171e-05</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$F_{p}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fq</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0001677506877508562</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>$F_{q}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>occp</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3.944268919198278e-06</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>$\eta_{p}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>occq</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1.160236817893111e-05</v>
+      <c r="C58" t="n">
+        <v>1.565455718140265e-05</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>$\eta_{q}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SCFOCCp</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2.714514772548432e-07</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>$\omega_{p}$</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SCFOCCq</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2.976744641649202e-07</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>$\omega_{p}$</t>
+        </is>
       </c>
     </row>
   </sheetData>
